--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>95.79704034959737</v>
+        <v>96.52628150089207</v>
       </c>
       <c r="D2" t="n">
-        <v>24.17478298859063</v>
+        <v>19.36942676970203</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.21618581048199</v>
+        <v>90.7919241566529</v>
       </c>
       <c r="D3" t="n">
-        <v>22.94975335733212</v>
+        <v>19.33169154471098</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.24383340194477</v>
+        <v>88.48759036244151</v>
       </c>
       <c r="D4" t="n">
-        <v>22.54327834944064</v>
+        <v>19.27802214968277</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.83102399749629</v>
+        <v>86.33089894383114</v>
       </c>
       <c r="D5" t="n">
-        <v>21.94929079872698</v>
+        <v>19.90666932822432</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.07306745465037</v>
+        <v>90.03410620487598</v>
       </c>
       <c r="D6" t="n">
-        <v>23.18702275679036</v>
+        <v>20.73948338300752</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.16102706943286</v>
+        <v>85.54276224594174</v>
       </c>
       <c r="D7" t="n">
-        <v>23.1218378218793</v>
+        <v>17.30664841101557</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.24118949687069</v>
+        <v>87.16166291337099</v>
       </c>
       <c r="D8" t="n">
-        <v>22.13466464400363</v>
+        <v>24.10522848736179</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.35298061369623</v>
+        <v>82.3173158854495</v>
       </c>
       <c r="D9" t="n">
-        <v>24.12585660879792</v>
+        <v>20.73434534396734</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.47635981361799</v>
+        <v>83.76064185411622</v>
       </c>
       <c r="D10" t="n">
-        <v>24.0936113897498</v>
+        <v>22.66277979137066</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.30227417029946</v>
+        <v>82.30196582063527</v>
       </c>
       <c r="D11" t="n">
-        <v>24.69729557431283</v>
+        <v>20.70306660697047</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.50775858206431</v>
+        <v>82.1491824588375</v>
       </c>
       <c r="D12" t="n">
-        <v>23.99507392990417</v>
+        <v>22.69749490428674</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.57628434392078</v>
+        <v>79.6956002191381</v>
       </c>
       <c r="D13" t="n">
-        <v>21.46296245701054</v>
+        <v>20.69637336562059</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.33537022946163</v>
+        <v>77.38337188506412</v>
       </c>
       <c r="D14" t="n">
-        <v>21.2558562520027</v>
+        <v>21.70743598739914</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.96860198660345</v>
+        <v>82.62222286042994</v>
       </c>
       <c r="D15" t="n">
-        <v>22.82271705548141</v>
+        <v>21.77526969871596</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.86849574667198</v>
+        <v>78.95800738489027</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2645852494661</v>
+        <v>20.89229041173674</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>80.13565293826423</v>
+        <v>77.69001732699638</v>
       </c>
       <c r="D17" t="n">
-        <v>18.94131432454594</v>
+        <v>19.02723773287327</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.46071701133934</v>
+        <v>74.24420768830943</v>
       </c>
       <c r="D18" t="n">
-        <v>22.80665762175079</v>
+        <v>20.56117356033297</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.56462061836466</v>
+        <v>74.73540964143082</v>
       </c>
       <c r="D19" t="n">
-        <v>22.97364548329917</v>
+        <v>21.3669294833633</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>76.34393069211353</v>
+        <v>69.28185506571205</v>
       </c>
       <c r="D20" t="n">
-        <v>22.26289620937239</v>
+        <v>21.47569560158982</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.01715804457903</v>
+        <v>73.36138417006212</v>
       </c>
       <c r="D21" t="n">
-        <v>19.90080865389847</v>
+        <v>22.96782931904633</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.95149034175449</v>
+        <v>67.40973565847582</v>
       </c>
       <c r="D22" t="n">
-        <v>24.07318684190962</v>
+        <v>22.51906604858477</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.00345978817671</v>
+        <v>66.4266167688118</v>
       </c>
       <c r="D23" t="n">
-        <v>18.97807870740907</v>
+        <v>21.71109077333069</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.31855037856837</v>
+        <v>67.99678415262029</v>
       </c>
       <c r="D24" t="n">
-        <v>24.06258157644444</v>
+        <v>18.84127643069103</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.84205210683469</v>
+        <v>68.11549968126479</v>
       </c>
       <c r="D25" t="n">
-        <v>23.14102163642076</v>
+        <v>20.89671956791751</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.39534014239399</v>
+        <v>65.65202325036579</v>
       </c>
       <c r="D26" t="n">
-        <v>23.33825093947532</v>
+        <v>19.71372118758001</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>71.15037236228819</v>
+        <v>64.76330643029273</v>
       </c>
       <c r="D27" t="n">
-        <v>22.16566759459912</v>
+        <v>22.1310204328056</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.94956482170706</v>
+        <v>62.80038805805747</v>
       </c>
       <c r="D28" t="n">
-        <v>24.50200797173172</v>
+        <v>19.81579844768298</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.26813156440745</v>
+        <v>61.3387011636918</v>
       </c>
       <c r="D29" t="n">
-        <v>21.33175620703861</v>
+        <v>21.60989029504621</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.72046568302774</v>
+        <v>64.44847574661839</v>
       </c>
       <c r="D30" t="n">
-        <v>23.07317605620663</v>
+        <v>21.6038594619502</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.72022333964097</v>
+        <v>59.14443074514698</v>
       </c>
       <c r="D31" t="n">
-        <v>22.89807068470259</v>
+        <v>22.70380202934359</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.73857233353485</v>
+        <v>59.7883560048286</v>
       </c>
       <c r="D32" t="n">
-        <v>20.02351386655058</v>
+        <v>19.73492715526237</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.49024524314545</v>
+        <v>59.55430282387585</v>
       </c>
       <c r="D33" t="n">
-        <v>22.20590784301094</v>
+        <v>20.67050580294427</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.29599932879737</v>
+        <v>58.74446707524449</v>
       </c>
       <c r="D34" t="n">
-        <v>20.45244141515163</v>
+        <v>22.73651098984649</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>54.318888199627</v>
+        <v>59.24790051557299</v>
       </c>
       <c r="D35" t="n">
-        <v>20.82884807930602</v>
+        <v>20.83989302825426</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.48162106554624</v>
+        <v>57.86676745795002</v>
       </c>
       <c r="D36" t="n">
-        <v>19.57654055775053</v>
+        <v>21.1787685472075</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.02187955221962</v>
+        <v>54.55234811333398</v>
       </c>
       <c r="D37" t="n">
-        <v>22.81940367641652</v>
+        <v>20.14595519351707</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.98012044729405</v>
+        <v>55.08781611529905</v>
       </c>
       <c r="D38" t="n">
-        <v>19.66340708961589</v>
+        <v>20.12349084210215</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.6418715336778</v>
+        <v>52.01663245429128</v>
       </c>
       <c r="D39" t="n">
-        <v>21.46892228851078</v>
+        <v>20.88827387907228</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>56.00123423835341</v>
+        <v>51.10114435178732</v>
       </c>
       <c r="D40" t="n">
-        <v>21.89576412153722</v>
+        <v>20.60653066534538</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.98787309570778</v>
+        <v>54.15721771279544</v>
       </c>
       <c r="D41" t="n">
-        <v>20.68654570084069</v>
+        <v>18.85170926556117</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.39890224923956</v>
+        <v>51.92858097430165</v>
       </c>
       <c r="D42" t="n">
-        <v>23.02787531042026</v>
+        <v>20.03414314824815</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.3328120339577</v>
+        <v>46.38327184318839</v>
       </c>
       <c r="D43" t="n">
-        <v>20.17854570276413</v>
+        <v>21.620924487411</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.10293146705489</v>
+        <v>49.68832810801034</v>
       </c>
       <c r="D44" t="n">
-        <v>22.9987824049069</v>
+        <v>21.26031187487303</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.22907297904158</v>
+        <v>47.48530156798502</v>
       </c>
       <c r="D45" t="n">
-        <v>21.65779322269417</v>
+        <v>19.35099190673593</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>49.78721146146079</v>
+        <v>47.85330873265554</v>
       </c>
       <c r="D46" t="n">
-        <v>22.20462499658302</v>
+        <v>19.90699264888282</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.8148339297529</v>
+        <v>44.20967562902094</v>
       </c>
       <c r="D47" t="n">
-        <v>21.27816916615907</v>
+        <v>20.9524862300433</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>40.56699043198645</v>
+        <v>46.73159548159589</v>
       </c>
       <c r="D48" t="n">
-        <v>21.71193978818902</v>
+        <v>19.14715109783242</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.66854458620778</v>
+        <v>40.93336371994482</v>
       </c>
       <c r="D49" t="n">
-        <v>23.08052173381052</v>
+        <v>22.11678228548794</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>44.68435115899197</v>
+        <v>42.50590407112887</v>
       </c>
       <c r="D50" t="n">
-        <v>21.47714460099475</v>
+        <v>20.64066328083666</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.30559220466769</v>
+        <v>37.20226559423902</v>
       </c>
       <c r="D51" t="n">
-        <v>21.01706545561365</v>
+        <v>18.75741033538566</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>45.6056785035296</v>
+        <v>40.24274917696538</v>
       </c>
       <c r="D52" t="n">
-        <v>19.83638941391861</v>
+        <v>20.66929889804871</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.86333830466518</v>
+        <v>41.04033183542145</v>
       </c>
       <c r="D53" t="n">
-        <v>18.73180077204447</v>
+        <v>22.80023065697004</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>41.99924781025338</v>
+        <v>37.07505868800963</v>
       </c>
       <c r="D54" t="n">
-        <v>22.32537991854814</v>
+        <v>20.62188178712104</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.62092374897821</v>
+        <v>33.52680937831054</v>
       </c>
       <c r="D55" t="n">
-        <v>20.12706517881443</v>
+        <v>19.41405511455877</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.55794062431012</v>
+        <v>31.42344126165138</v>
       </c>
       <c r="D56" t="n">
-        <v>22.63621621496424</v>
+        <v>20.88090461677141</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.83398478692889</v>
+        <v>34.13867666880299</v>
       </c>
       <c r="D57" t="n">
-        <v>19.23176629101097</v>
+        <v>18.30218911918225</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.17418474192939</v>
+        <v>34.39190676057816</v>
       </c>
       <c r="D58" t="n">
-        <v>19.53033871641171</v>
+        <v>19.37387193253147</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>28.44502551907154</v>
+        <v>34.93279270463064</v>
       </c>
       <c r="D59" t="n">
-        <v>21.83216713302088</v>
+        <v>20.67878477691895</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.76069169131335</v>
+        <v>29.39449782148574</v>
       </c>
       <c r="D60" t="n">
-        <v>20.31232373692405</v>
+        <v>24.33813511176931</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.41871308072189</v>
+        <v>31.89194243138182</v>
       </c>
       <c r="D61" t="n">
-        <v>18.62264073566515</v>
+        <v>21.67531300031224</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.2820008209803</v>
+        <v>29.79379938240396</v>
       </c>
       <c r="D62" t="n">
-        <v>20.08559236788482</v>
+        <v>19.1792142501472</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.37542374955181</v>
+        <v>32.90429944150261</v>
       </c>
       <c r="D63" t="n">
-        <v>21.83550405991025</v>
+        <v>22.09484187870073</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.02193425208874</v>
+        <v>25.57128463965596</v>
       </c>
       <c r="D64" t="n">
-        <v>22.10005583576078</v>
+        <v>20.85859535651471</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.61405120662885</v>
+        <v>26.60929098685539</v>
       </c>
       <c r="D65" t="n">
-        <v>21.09010615872318</v>
+        <v>22.3552123561061</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9585883496851</v>
+        <v>25.38646004809715</v>
       </c>
       <c r="D66" t="n">
-        <v>21.33210829730696</v>
+        <v>21.80779178869274</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.59129757697638</v>
+        <v>22.90813929588792</v>
       </c>
       <c r="D67" t="n">
-        <v>20.92523282239353</v>
+        <v>20.56999123284204</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.60676540492274</v>
+        <v>22.05837426147866</v>
       </c>
       <c r="D68" t="n">
-        <v>19.81605252264628</v>
+        <v>18.40938013228316</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.40133969245021</v>
+        <v>28.07990364127803</v>
       </c>
       <c r="D69" t="n">
-        <v>19.5612199542194</v>
+        <v>21.81350639982018</v>
       </c>
     </row>
   </sheetData>
